--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV_1ano_2024\Documents\Gabriel Ortolani\SPRINT1_sitePetrobras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV_1ano_2024\Documents\Pedro Henrique S R\SPRINT1_sitePetrobras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -155,15 +155,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,11 +458,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -517,16 +517,16 @@
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV_1ano_2024\Documents\Pedro Henrique S R\SPRINT1_sitePetrobras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEV_1ano_2024\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,52 +24,314 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Desenvolver o prototipo de alta fidelifade</t>
-  </si>
-  <si>
-    <t>Desenvolver o ABNT</t>
-  </si>
-  <si>
-    <t>Cronograma 24/09</t>
-  </si>
-  <si>
-    <t>Desenvolver o site por meio do HTML e do CSS</t>
-  </si>
-  <si>
-    <t>Finalizar o desenvolvimento do site</t>
-  </si>
-  <si>
-    <t>Finalizar o ABNT</t>
-  </si>
-  <si>
-    <t>Fazer o levantamento de requisitos</t>
-  </si>
-  <si>
-    <t>Planejamento e divisão das tarefas</t>
-  </si>
-  <si>
-    <t>Desenvolver o cronograma</t>
-  </si>
-  <si>
-    <t>Finalizar o cronograma</t>
-  </si>
-  <si>
-    <t>Finalizar o Prototipo de alta fidelidade</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>CRONOGRAMA</t>
+  </si>
+  <si>
+    <t>SPRINT 2                                                                             12/11/24</t>
+  </si>
+  <si>
+    <t>SPRINT 1                                                                                                             17/9/24</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finalizar o Prototipo de alta fidelidade                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desenvolver o site por meio do HTML e do CSS                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finalizar o cronograma                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>12:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finalizar o ABNT                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16:45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finalizar o desenvolvimento do site                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16:45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desenvolver o ABNT                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>07:45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desenvolver o cronograma                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>07:45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Desenvolver o prototipo de alta fidelifade                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>07:45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fazer o levantamento de requisitos                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>07:45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Planejamento e divisão das tarefas                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>07:45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Arrumar o Fluxograma                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dicionário de dados                                        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">14:00 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                            </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modelo conceitual                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>14:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modelo lógico                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Modelo físico (SQL)                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ajustar o Cronograma                                                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13:00</t>
+    </r>
+  </si>
+  <si>
+    <t>SPRINT 3                                                                         10/12/24</t>
+  </si>
+  <si>
+    <t>ENTREGA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Bahnschrift SemiBold Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bahnschrift SemiBold Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF006600"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -81,24 +343,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFCC66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FF006600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFCCFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,44 +387,111 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -170,6 +499,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FF006600"/>
+      <color rgb="FFFFCC66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -444,94 +780,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="1" max="3" width="15.6328125" customWidth="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+    </row>
+    <row r="2" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.69791666666666663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="27">
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="H3:K13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>CRONOGRAMA</t>
   </si>
@@ -284,10 +284,88 @@
     </r>
   </si>
   <si>
-    <t>SPRINT 3                                                                         10/12/24</t>
-  </si>
-  <si>
-    <t>ENTREGA</t>
+    <t>SPRINT 3                                                                         02/12/24</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Término do Cronograma   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                               9:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finalizar Fluxograma                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>15:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Término da Documentação                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>16:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Término da Programação                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>13:45</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fazer apresentação de Slides                                                          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>14:30</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -424,12 +502,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -442,7 +544,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,9 +568,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -471,27 +588,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -793,256 +889,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
     <row r="2" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="17" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="23" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D13:G13"/>
+  <mergeCells count="37">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="H3:K13"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D2:G2"/>
@@ -1053,17 +1152,32 @@
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="H2:K2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
